--- a/media_mensal_.xlsx
+++ b/media_mensal_.xlsx
@@ -19,7 +19,7 @@
     <t>Gotas cortadas (toneladas)</t>
   </si>
   <si>
-    <t>Peso médio (Kg)</t>
+    <t>Peso médio (g)</t>
   </si>
   <si>
     <t>Cortes por minuto</t>
